--- a/Contabilidade_Belem.xlsx
+++ b/Contabilidade_Belem.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devse\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devse\Documentos\GitHub\WorkFlowBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$Q$38</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="102">
   <si>
     <t>COLABORADOR</t>
   </si>
@@ -89,173 +89,260 @@
     <t>EMPRESA</t>
   </si>
   <si>
-    <t>TIM CASTANHEIRAS BELEM</t>
-  </si>
-  <si>
-    <t>CMR 763</t>
-  </si>
-  <si>
     <t>CONSULTOR (A) DE VENDAS</t>
   </si>
   <si>
     <t>PA</t>
   </si>
   <si>
-    <t>CARLOS AUGUSTO OLIVEIRA MATOS JUNIOR</t>
-  </si>
-  <si>
-    <t>TIM PATIO BELEM 2</t>
-  </si>
-  <si>
-    <t>CMR 220</t>
-  </si>
-  <si>
-    <t>EMILY ALVES BENTES</t>
-  </si>
-  <si>
-    <t>TIM PATIO BELEM 1</t>
-  </si>
-  <si>
-    <t>CMR 600</t>
-  </si>
-  <si>
-    <t>TIM PARQUE BELEM</t>
-  </si>
-  <si>
-    <t>CMR 573</t>
-  </si>
-  <si>
-    <t>TIM BOULEVARD BELEM</t>
-  </si>
-  <si>
-    <t>CMR 492</t>
-  </si>
-  <si>
-    <t>FABIO SILVA DE OLIVEIRA</t>
-  </si>
-  <si>
     <t>GERENTE</t>
   </si>
   <si>
-    <t>RICHARD GABRIEL DA SILVA MACIEL</t>
-  </si>
-  <si>
-    <t>KMYLA ALVES DA SILVA</t>
-  </si>
-  <si>
-    <t>LUIS EDUARDO DA SILVA DINELLI</t>
-  </si>
-  <si>
-    <t>ANDRE MAURÍCIO QUEIROZ LIMA</t>
-  </si>
-  <si>
-    <t>ANTONIO CARLOS DA CRUZ VIANA</t>
-  </si>
-  <si>
-    <t>INGRID GRAZIELLE BARBOSA ANDRADE</t>
-  </si>
-  <si>
     <t>COORDENADOR</t>
-  </si>
-  <si>
-    <t>ROBERT WESLEY PEREIRA VALADARES</t>
-  </si>
-  <si>
-    <t>RONALD WISLEY DOS REIS RODRIGUES</t>
-  </si>
-  <si>
-    <t>ROZILENE DO SOCORRO CRUZ DOS SANTOS</t>
-  </si>
-  <si>
-    <t>VICTORIA REGINA VASCONCELOS BRAGA</t>
-  </si>
-  <si>
-    <t>ALANA DA SILVA FERREIRA</t>
-  </si>
-  <si>
-    <t>CMR 735</t>
-  </si>
-  <si>
-    <t>DEBORA CRISTINA SILVA NEVES DA CUNHA</t>
-  </si>
-  <si>
-    <t>GABRIEL FERREIRA ESTUMANO MARTINS</t>
-  </si>
-  <si>
-    <t>JORGE RICARDO DAS MERCES DE CASTRO</t>
-  </si>
-  <si>
-    <t>LORENA CHAVES BAYMA NUNES</t>
-  </si>
-  <si>
-    <t>MARCELO SILVA VILHENA</t>
-  </si>
-  <si>
-    <t>WALERIA VIANA SOUSA</t>
   </si>
   <si>
     <t>DATAS
 FALTAS</t>
   </si>
   <si>
-    <t>ALVARO HENRIQUE STROMBERG DE SOUZA</t>
-  </si>
-  <si>
-    <t>ANA CAROLINA GONCALVES TAVARES</t>
-  </si>
-  <si>
-    <t>CAMILA AZEVEDO PANTOJA</t>
-  </si>
-  <si>
-    <t>ERICA DARCILENA CONCEICAO DOS SANTOS</t>
-  </si>
-  <si>
-    <t>GLEYDSON MARLON REGO ALVES</t>
-  </si>
-  <si>
-    <t>KEILA CRISTINA RAIOL COSTA</t>
-  </si>
-  <si>
-    <t>MARCELO FERREIRA SALOMAO</t>
-  </si>
-  <si>
-    <t>TIM METROPOLE BELEM</t>
-  </si>
-  <si>
-    <t>COORDENAÇÃO BELEM</t>
-  </si>
-  <si>
-    <t>ESTOQUE BELEM</t>
-  </si>
-  <si>
-    <t>BRENDA HEVELIN MARTINS CATETE DA LUZ</t>
-  </si>
-  <si>
-    <t>KELLYSOM LUAM DE ALMEIDA FREITAS</t>
-  </si>
-  <si>
-    <t>MARCELO FILIPE LOPES SILVA</t>
-  </si>
-  <si>
-    <t>MAYANNE BRENDA DUARTE MENDES</t>
-  </si>
-  <si>
-    <t>PAULA LORENA BORGES DE ALMEIDA</t>
-  </si>
-  <si>
-    <t>ANDERSON FERREIRA BARBOSA</t>
-  </si>
-  <si>
-    <t>DIOGO OLIVEIRA GOMES</t>
-  </si>
-  <si>
-    <t>JOSE FELIPE DE MENEZES</t>
-  </si>
-  <si>
-    <t>LUIZ KAUE DA SILVA DINELLI</t>
-  </si>
-  <si>
-    <t>RAFAELA CRISTINA DA SILVA VALENTE</t>
+    <t>PESSOA 1</t>
+  </si>
+  <si>
+    <t>PESSOA 2</t>
+  </si>
+  <si>
+    <t>PESSOA 3</t>
+  </si>
+  <si>
+    <t>PESSOA 4</t>
+  </si>
+  <si>
+    <t>PESSOA 5</t>
+  </si>
+  <si>
+    <t>PESSOA 6</t>
+  </si>
+  <si>
+    <t>PESSOA 7</t>
+  </si>
+  <si>
+    <t>PESSOA 8</t>
+  </si>
+  <si>
+    <t>PESSOA 9</t>
+  </si>
+  <si>
+    <t>PESSOA 10</t>
+  </si>
+  <si>
+    <t>PESSOA 11</t>
+  </si>
+  <si>
+    <t>PESSOA 12</t>
+  </si>
+  <si>
+    <t>PESSOA 13</t>
+  </si>
+  <si>
+    <t>PESSOA 14</t>
+  </si>
+  <si>
+    <t>PESSOA 15</t>
+  </si>
+  <si>
+    <t>PESSOA 16</t>
+  </si>
+  <si>
+    <t>PESSOA 17</t>
+  </si>
+  <si>
+    <t>PESSOA 18</t>
+  </si>
+  <si>
+    <t>PESSOA 19</t>
+  </si>
+  <si>
+    <t>PESSOA 20</t>
+  </si>
+  <si>
+    <t>PESSOA 21</t>
+  </si>
+  <si>
+    <t>PESSOA 22</t>
+  </si>
+  <si>
+    <t>PESSOA 23</t>
+  </si>
+  <si>
+    <t>PESSOA 24</t>
+  </si>
+  <si>
+    <t>PESSOA 25</t>
+  </si>
+  <si>
+    <t>PESSOA 26</t>
+  </si>
+  <si>
+    <t>PESSOA 27</t>
+  </si>
+  <si>
+    <t>PESSOA 28</t>
+  </si>
+  <si>
+    <t>PESSOA 29</t>
+  </si>
+  <si>
+    <t>PESSOA 30</t>
+  </si>
+  <si>
+    <t>PESSOA 31</t>
+  </si>
+  <si>
+    <t>PESSOA 32</t>
+  </si>
+  <si>
+    <t>PESSOA 33</t>
+  </si>
+  <si>
+    <t>PESSOA 34</t>
+  </si>
+  <si>
+    <t>PESSOA 35</t>
+  </si>
+  <si>
+    <t>PESSOA 36</t>
+  </si>
+  <si>
+    <t>PESSOA 37</t>
+  </si>
+  <si>
+    <t>LOJA 1</t>
+  </si>
+  <si>
+    <t>LOJA 2</t>
+  </si>
+  <si>
+    <t>LOJA 3</t>
+  </si>
+  <si>
+    <t>LOJA 4</t>
+  </si>
+  <si>
+    <t>LOJA 5</t>
+  </si>
+  <si>
+    <t>LOJA 6</t>
+  </si>
+  <si>
+    <t>LOJA 7</t>
+  </si>
+  <si>
+    <t>LOJA 8</t>
+  </si>
+  <si>
+    <t>LOJA 9</t>
+  </si>
+  <si>
+    <t>LOJA 10</t>
+  </si>
+  <si>
+    <t>LOJA 11</t>
+  </si>
+  <si>
+    <t>LOJA 12</t>
+  </si>
+  <si>
+    <t>LOJA 13</t>
+  </si>
+  <si>
+    <t>LOJA 14</t>
+  </si>
+  <si>
+    <t>LOJA 15</t>
+  </si>
+  <si>
+    <t>LOJA 16</t>
+  </si>
+  <si>
+    <t>LOJA 17</t>
+  </si>
+  <si>
+    <t>LOJA 18</t>
+  </si>
+  <si>
+    <t>LOJA 19</t>
+  </si>
+  <si>
+    <t>LOJA 20</t>
+  </si>
+  <si>
+    <t>LOJA 21</t>
+  </si>
+  <si>
+    <t>LOJA 22</t>
+  </si>
+  <si>
+    <t>LOJA 23</t>
+  </si>
+  <si>
+    <t>LOJA 24</t>
+  </si>
+  <si>
+    <t>LOJA 25</t>
+  </si>
+  <si>
+    <t>LOJA 26</t>
+  </si>
+  <si>
+    <t>LOJA 27</t>
+  </si>
+  <si>
+    <t>LOJA 28</t>
+  </si>
+  <si>
+    <t>LOJA 29</t>
+  </si>
+  <si>
+    <t>LOJA 30</t>
+  </si>
+  <si>
+    <t>LOJA 31</t>
+  </si>
+  <si>
+    <t>LOJA 32</t>
+  </si>
+  <si>
+    <t>LOJA 33</t>
+  </si>
+  <si>
+    <t>LOJA 34</t>
+  </si>
+  <si>
+    <t>LOJA 35</t>
+  </si>
+  <si>
+    <t>LOJA 36</t>
+  </si>
+  <si>
+    <t>LOJA 37</t>
+  </si>
+  <si>
+    <t>CODING 220</t>
+  </si>
+  <si>
+    <t>CODING 492</t>
+  </si>
+  <si>
+    <t>CODING 573</t>
+  </si>
+  <si>
+    <t>CODING 600</t>
+  </si>
+  <si>
+    <t>CODING 735</t>
+  </si>
+  <si>
+    <t>CODING 763</t>
   </si>
 </sst>
 </file>
@@ -296,14 +383,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF002060"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -323,8 +402,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,13 +426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,14 +488,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -429,29 +507,32 @@
     <xf numFmtId="44" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -892,45 +973,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H7"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="42.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -945,34 +1025,34 @@
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="J1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B2" s="8">
         <v>1021</v>
@@ -1008,24 +1088,24 @@
         <v>2</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q2" s="14">
         <v>735</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B3" s="8">
         <v>145.5</v>
@@ -1061,24 +1141,24 @@
         <v>3</v>
       </c>
       <c r="M3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="O3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>19</v>
-      </c>
       <c r="P3" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q3" s="14">
         <v>735</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B4" s="8">
         <v>0</v>
@@ -1114,24 +1194,24 @@
         <v>14</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="14">
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="B5" s="8">
         <v>0</v>
@@ -1167,24 +1247,24 @@
         <v>14</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P5" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="14">
         <v>492</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B6" s="8">
         <v>0</v>
@@ -1220,24 +1300,24 @@
         <v>8</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="14">
         <v>763</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B7" s="8">
         <v>0</v>
@@ -1273,24 +1353,24 @@
         <v>5</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q7" s="14">
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B8" s="8">
         <v>0</v>
@@ -1326,24 +1406,24 @@
         <v>12</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="O8" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P8" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="14">
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B9" s="8">
         <v>0</v>
@@ -1379,24 +1459,24 @@
         <v>13</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="14">
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B10" s="8">
         <v>370.44</v>
@@ -1432,24 +1512,24 @@
         <v>2</v>
       </c>
       <c r="M10" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="O10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" s="13" t="s">
-        <v>19</v>
-      </c>
       <c r="P10" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="14">
         <v>763</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B11" s="8">
         <v>320.70999999999998</v>
@@ -1485,24 +1565,24 @@
         <v>11</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P11" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="14">
         <v>600</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="B12" s="8">
         <v>0</v>
@@ -1538,24 +1618,24 @@
         <v>5</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="14">
         <v>735</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B13" s="8">
         <v>104.73</v>
@@ -1591,24 +1671,24 @@
         <v>1</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N13" s="13" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P13" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="14">
         <v>600</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B14" s="8">
         <v>0</v>
@@ -1644,24 +1724,24 @@
         <v>5</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="N14" s="13" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="14">
         <v>573</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B15" s="8">
         <v>486.05</v>
@@ -1697,24 +1777,24 @@
         <v>2</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="P15" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q15" s="14">
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B16" s="8">
         <v>747.79</v>
@@ -1750,24 +1830,24 @@
         <v>1</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="N16" s="13" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="O16" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P16" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q16" s="14">
         <v>735</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B17" s="8">
         <v>100.12</v>
@@ -1803,22 +1883,22 @@
         <v>14</v>
       </c>
       <c r="M17" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="O17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="N17" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="O17" s="13" t="s">
-        <v>19</v>
-      </c>
       <c r="P17" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q17" s="14">
         <v>763</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>38</v>
       </c>
@@ -1856,24 +1936,24 @@
         <v>8</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="N18" s="13" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="O18" s="13" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="P18" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q18" s="14">
         <v>492</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="B19" s="8">
         <v>0</v>
@@ -1909,24 +1989,24 @@
         <v>15</v>
       </c>
       <c r="M19" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="O19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="N19" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="O19" s="13" t="s">
-        <v>19</v>
-      </c>
       <c r="P19" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q19" s="14">
         <v>763</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B20" s="8">
         <v>200.25</v>
@@ -1962,24 +2042,24 @@
         <v>12</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="N20" s="13" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="O20" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q20" s="14">
         <v>573</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B21" s="8">
         <v>0</v>
@@ -2015,24 +2095,24 @@
         <v>13</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="O21" s="13" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="P21" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q21" s="14">
         <v>763</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B22" s="8">
         <v>48.77</v>
@@ -2068,24 +2148,24 @@
         <v>12</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="N22" s="13" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="O22" s="13" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="P22" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q22" s="14">
         <v>220</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B23" s="8">
         <v>127.7</v>
@@ -2121,24 +2201,24 @@
         <v>6</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="N23" s="13" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="O23" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P23" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q23" s="14">
         <v>573</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B24" s="8">
         <v>191.6</v>
@@ -2174,24 +2254,24 @@
         <v>7</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="N24" s="13" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="O24" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q24" s="14">
         <v>600</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B25" s="8">
         <v>721.85</v>
@@ -2227,24 +2307,24 @@
         <v>6</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="N25" s="13" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="O25" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P25" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q25" s="14">
         <v>600</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B26" s="8">
         <v>0</v>
@@ -2280,24 +2360,24 @@
         <v>4</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="N26" s="13" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="O26" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P26" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q26" s="14">
         <v>735</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B27" s="8">
         <v>400.1</v>
@@ -2333,24 +2413,24 @@
         <v>9</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="O27" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P27" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q27" s="14">
         <v>573</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B28" s="8">
         <v>200.27</v>
@@ -2386,24 +2466,24 @@
         <v>11</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="N28" s="13" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="O28" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P28" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q28" s="14">
         <v>492</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" s="8">
         <v>699.31</v>
@@ -2439,24 +2519,24 @@
         <v>11</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="O29" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q29" s="14">
         <v>573</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B30" s="8">
         <v>0</v>
@@ -2492,24 +2572,24 @@
         <v>12</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="N30" s="13" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="O30" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q30" s="14">
         <v>492</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B31" s="8">
         <v>0</v>
@@ -2545,24 +2625,24 @@
         <v>13</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="N31" s="13" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="O31" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P31" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q31" s="14">
         <v>492</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B32" s="8">
         <v>0</v>
@@ -2598,24 +2678,24 @@
         <v>15</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="N32" s="13" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="O32" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P32" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q32" s="14">
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B33" s="8">
         <v>1050.01</v>
@@ -2651,24 +2731,24 @@
         <v>4</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="N33" s="13" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="O33" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P33" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q33" s="14">
         <v>600</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B34" s="8">
         <v>200.29</v>
@@ -2704,24 +2784,24 @@
         <v>11</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="N34" s="13" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="O34" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P34" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q34" s="14">
         <v>220</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B35" s="8">
         <v>351.37</v>
@@ -2757,24 +2837,24 @@
         <v>10</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="N35" s="13" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="O35" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P35" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q35" s="14">
         <v>492</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B36" s="8">
         <v>94.26</v>
@@ -2810,24 +2890,24 @@
         <v>10</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q36" s="14">
         <v>573</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B37" s="8">
         <v>325.13</v>
@@ -2863,24 +2943,24 @@
         <v>11</v>
       </c>
       <c r="M37" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="N37" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="O37" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="N37" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="O37" s="13" t="s">
-        <v>19</v>
-      </c>
       <c r="P37" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q37" s="14">
         <v>763</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B38" s="8">
         <v>0</v>
@@ -2916,16 +2996,16 @@
         <v>9</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="N38" s="13" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="O38" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P38" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q38" s="14">
         <v>600</v>
@@ -3020,5 +3100,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>